--- a/biology/Botanique/Aristidoideae/Aristidoideae.xlsx
+++ b/biology/Botanique/Aristidoideae/Aristidoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aristidoideae sont une sous-famille de plantes monocotylédones de la famille des Poaceae et de l'ordre des Poales.
-Ce sont des plantes herbacées, annuelles ou vivaces distribuées dans les régions tropicales, subtropicales ou tempérées[2].
-Cette sous-famille comprend une seule tribu, les Aristideae, composée elle-même de plus de 300 espèces regroupée en trois genres : Aristida (250 à 290 espèces), Stipagrostis (50 espèces) et Sartidia[2].
-C'est l'une des sept sous-familles (avec les Panicoideae, Arundinoideae, Chloridoideae, Centothecoideae, Micrairoideae et Danthonioideae) constituant le clade PACMAD,  groupe évolutif de graminées, dans lequel la  photosynthèse en C4 a évolué plusieurs fois indépendamment[3].
+Ce sont des plantes herbacées, annuelles ou vivaces distribuées dans les régions tropicales, subtropicales ou tempérées.
+Cette sous-famille comprend une seule tribu, les Aristideae, composée elle-même de plus de 300 espèces regroupée en trois genres : Aristida (250 à 290 espèces), Stipagrostis (50 espèces) et Sartidia.
+C'est l'une des sept sous-familles (avec les Panicoideae, Arundinoideae, Chloridoideae, Centothecoideae, Micrairoideae et Danthonioideae) constituant le clade PACMAD,  groupe évolutif de graminées, dans lequel la  photosynthèse en C4 a évolué plusieurs fois indépendamment.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des genres, espèces, sous-espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (15 juin 2016)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (15 juin 2016) :
 Aristida
 Aristida abnormis
 Aristida adoensis
